--- a/attendance-files/Python/Python Attendance - B.xlsx
+++ b/attendance-files/Python/Python Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="137">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -821,14 +821,14 @@
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F60" si="2">COUNTIF(G7:P7,"P")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>30</v>
@@ -1379,12 +1379,18 @@
       <c r="L7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1412,11 +1418,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>30</v>
@@ -1436,12 +1442,18 @@
       <c r="L8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="O8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1473,7 +1485,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>30</v>
@@ -1493,12 +1505,18 @@
       <c r="L9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="O9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1530,7 +1548,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>30</v>
@@ -1550,12 +1568,18 @@
       <c r="L10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="O10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1587,7 +1611,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>30</v>
@@ -1607,12 +1631,18 @@
       <c r="L11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="33"/>
+      <c r="O11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1644,7 +1674,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>30</v>
@@ -1664,12 +1694,18 @@
       <c r="L12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="O12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q12" s="32"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1701,7 +1737,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>30</v>
@@ -1721,12 +1757,18 @@
       <c r="L13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="28"/>
+      <c r="O13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1758,7 +1800,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>30</v>
@@ -1778,12 +1820,18 @@
       <c r="L14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="O14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q14" s="32"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1811,11 +1859,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>30</v>
@@ -1835,12 +1883,18 @@
       <c r="L15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1872,7 +1926,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>30</v>
@@ -1892,12 +1946,18 @@
       <c r="L16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="O16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1929,7 +1989,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>30</v>
@@ -1949,12 +2009,18 @@
       <c r="L17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="O17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1986,7 +2052,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>30</v>
@@ -2006,12 +2072,18 @@
       <c r="L18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="28"/>
+      <c r="M18" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="O18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q18" s="32"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -2039,11 +2111,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>30</v>
@@ -2063,12 +2135,18 @@
       <c r="L19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="O19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q19" s="32"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2100,7 +2178,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>31</v>
@@ -2120,12 +2198,18 @@
       <c r="L20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="28"/>
+      <c r="M20" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="O20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q20" s="32"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2153,11 +2237,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>30</v>
@@ -2177,12 +2261,18 @@
       <c r="L21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="O21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q21" s="32"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2210,11 +2300,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>30</v>
@@ -2234,12 +2324,18 @@
       <c r="L22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="28"/>
+      <c r="M22" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="28"/>
+      <c r="O22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q22" s="32"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2271,7 +2367,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>30</v>
@@ -2291,12 +2387,18 @@
       <c r="L23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="O23" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q23" s="32"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2328,7 +2430,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>30</v>
@@ -2348,12 +2450,18 @@
       <c r="L24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="O24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q24" s="32"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -2381,11 +2489,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>30</v>
@@ -2405,12 +2513,18 @@
       <c r="L25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="O25" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q25" s="32"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2442,7 +2556,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>30</v>
@@ -2462,12 +2576,18 @@
       <c r="L26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="28"/>
+      <c r="M26" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="O26" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2499,7 +2619,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>30</v>
@@ -2519,12 +2639,18 @@
       <c r="L27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="28"/>
+      <c r="M27" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="O27" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q27" s="32"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2556,7 +2682,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>30</v>
@@ -2576,12 +2702,18 @@
       <c r="L28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="28"/>
+      <c r="M28" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="O28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2609,11 +2741,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>30</v>
@@ -2633,12 +2765,18 @@
       <c r="L29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="O29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q29" s="32"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2670,7 +2808,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>30</v>
@@ -2690,12 +2828,18 @@
       <c r="L30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="28"/>
+      <c r="M30" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="O30" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2727,7 +2871,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>30</v>
@@ -2747,12 +2891,18 @@
       <c r="L31" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="33"/>
+      <c r="M31" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="O31" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q31" s="32"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -2784,7 +2934,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>30</v>
@@ -2804,12 +2954,18 @@
       <c r="L32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="33"/>
+      <c r="O32" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q32" s="32"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2841,7 +2997,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>30</v>
@@ -2861,12 +3017,18 @@
       <c r="L33" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="33"/>
+      <c r="M33" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N33" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="O33" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q33" s="32"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2894,11 +3056,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>30</v>
@@ -2918,12 +3080,18 @@
       <c r="L34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="28"/>
+      <c r="M34" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="33"/>
-      <c r="P34" s="28"/>
+      <c r="O34" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q34" s="32"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2951,11 +3119,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>30</v>
@@ -2975,12 +3143,18 @@
       <c r="L35" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="O35" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q35" s="32"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -3008,11 +3182,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>30</v>
@@ -3032,12 +3206,18 @@
       <c r="L36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="28"/>
+      <c r="M36" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N36" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
+      <c r="O36" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q36" s="32"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -3069,7 +3249,7 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>30</v>
@@ -3089,12 +3269,18 @@
       <c r="L37" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="28"/>
+      <c r="M37" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="33"/>
+      <c r="O37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q37" s="32"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -3122,11 +3308,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>30</v>
@@ -3146,12 +3332,18 @@
       <c r="L38" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N38" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="33"/>
+      <c r="O38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q38" s="32"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -3179,11 +3371,11 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>30</v>
@@ -3203,12 +3395,18 @@
       <c r="L39" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="28"/>
+      <c r="M39" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N39" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="O39" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q39" s="32"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3236,11 +3434,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>30</v>
@@ -3260,12 +3458,18 @@
       <c r="L40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
+      <c r="O40" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q40" s="32"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -3293,11 +3497,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>30</v>
@@ -3317,12 +3521,18 @@
       <c r="L41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="28"/>
+      <c r="M41" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="O41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q41" s="32"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -3350,11 +3560,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>30</v>
@@ -3374,12 +3584,18 @@
       <c r="L42" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="28"/>
+      <c r="M42" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N42" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="O42" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q42" s="32"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3411,7 +3627,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>31</v>
@@ -3431,12 +3647,18 @@
       <c r="L43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="33"/>
+      <c r="M43" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
+      <c r="O43" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q43" s="32"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3468,7 +3690,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>30</v>
@@ -3488,12 +3710,18 @@
       <c r="L44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="O44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q44" s="32"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3525,7 +3753,7 @@
       </c>
       <c r="F45" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>30</v>
@@ -3545,12 +3773,18 @@
       <c r="L45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="28"/>
+      <c r="M45" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+      <c r="O45" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q45" s="32"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3582,7 +3816,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>30</v>
@@ -3602,12 +3836,18 @@
       <c r="L46" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="28"/>
+      <c r="M46" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N46" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+      <c r="O46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q46" s="32"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3635,11 +3875,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>30</v>
@@ -3659,12 +3899,18 @@
       <c r="L47" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M47" s="33"/>
+      <c r="M47" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N47" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+      <c r="O47" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3692,11 +3938,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>30</v>
@@ -3716,12 +3962,18 @@
       <c r="L48" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="28"/>
+      <c r="M48" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N48" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
+      <c r="O48" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q48" s="32"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3749,11 +4001,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>30</v>
@@ -3773,12 +4025,18 @@
       <c r="L49" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="28"/>
+      <c r="M49" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N49" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="28"/>
+      <c r="O49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q49" s="32"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3806,11 +4064,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>30</v>
@@ -3830,12 +4088,18 @@
       <c r="L50" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="28"/>
+      <c r="M50" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N50" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="28"/>
-      <c r="P50" s="33"/>
+      <c r="O50" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q50" s="32"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3863,11 +4127,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>30</v>
@@ -3887,12 +4151,18 @@
       <c r="L51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="28"/>
+      <c r="M51" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N51" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q51" s="32"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3920,11 +4190,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>30</v>
@@ -3944,12 +4214,18 @@
       <c r="L52" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="28"/>
+      <c r="M52" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N52" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="O52" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q52" s="32"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -3977,11 +4253,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>30</v>
@@ -4001,12 +4277,18 @@
       <c r="L53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="33"/>
+      <c r="M53" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="O53" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q53" s="32"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -4034,11 +4316,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>30</v>
@@ -4058,12 +4340,18 @@
       <c r="L54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M54" s="28"/>
+      <c r="M54" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N54" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="O54" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="Q54" s="32"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4095,7 +4383,7 @@
       </c>
       <c r="F55" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>30</v>
@@ -4115,12 +4403,18 @@
       <c r="L55" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="28"/>
+      <c r="M55" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N55" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="O55" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q55" s="32"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -4152,7 +4446,7 @@
       </c>
       <c r="F56" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>31</v>
@@ -4172,12 +4466,18 @@
       <c r="L56" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M56" s="28"/>
+      <c r="M56" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N56" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
+      <c r="O56" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q56" s="32"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -4209,7 +4509,7 @@
       </c>
       <c r="F57" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>30</v>
@@ -4229,12 +4529,18 @@
       <c r="L57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M57" s="28"/>
+      <c r="M57" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N57" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
+      <c r="O57" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q57" s="32"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -4266,7 +4572,7 @@
       </c>
       <c r="F58" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>31</v>
@@ -4286,12 +4592,18 @@
       <c r="L58" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M58" s="28"/>
+      <c r="M58" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N58" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
+      <c r="O58" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q58" s="32"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -4323,7 +4635,7 @@
       </c>
       <c r="F59" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>30</v>
@@ -4343,12 +4655,18 @@
       <c r="L59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M59" s="33"/>
+      <c r="M59" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N59" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
+      <c r="O59" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q59" s="32"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -4380,7 +4698,7 @@
       </c>
       <c r="F60" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>30</v>
@@ -4400,12 +4718,18 @@
       <c r="L60" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="28"/>
+      <c r="M60" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="N60" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
+      <c r="O60" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="Q60" s="32"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -4422,16 +4746,16 @@
       <c r="A61" s="28">
         <v>55.0</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="33"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="28"/>
-      <c r="K61" s="33"/>
+      <c r="K61" s="35"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -4458,8 +4782,8 @@
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
@@ -4495,7 +4819,7 @@
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
-      <c r="M63" s="33"/>
+      <c r="M63" s="35"/>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
@@ -4520,10 +4844,10 @@
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="33"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -4553,8 +4877,8 @@
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -4587,11 +4911,11 @@
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
-      <c r="L66" s="33"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
-      <c r="P66" s="33"/>
+      <c r="P66" s="35"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -4681,7 +5005,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
       <c r="L69" s="28"/>
-      <c r="M69" s="33"/>
+      <c r="M69" s="35"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
@@ -4708,7 +5032,7 @@
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="33"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
       <c r="L70" s="28"/>
@@ -4737,14 +5061,14 @@
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="33"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="33"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
       <c r="Q71" s="32"/>
@@ -4774,8 +5098,8 @@
       <c r="J72" s="28"/>
       <c r="K72" s="28"/>
       <c r="L72" s="28"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
       <c r="Q72" s="32"/>
@@ -4802,9 +5126,9 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="33"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="28"/>
-      <c r="L73" s="33"/>
+      <c r="L73" s="35"/>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
@@ -4865,9 +5189,9 @@
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
-      <c r="K75" s="33"/>
+      <c r="K75" s="35"/>
       <c r="L75" s="28"/>
-      <c r="M75" s="33"/>
+      <c r="M75" s="35"/>
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
@@ -4893,13 +5217,13 @@
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
-      <c r="H76" s="33"/>
+      <c r="H76" s="35"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28"/>
       <c r="M76" s="28"/>
-      <c r="N76" s="33"/>
+      <c r="N76" s="35"/>
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
       <c r="Q76" s="32"/>
@@ -4925,14 +5249,14 @@
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
       <c r="K77" s="28"/>
       <c r="L77" s="28"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
       <c r="Q77" s="32"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -4954,14 +5278,14 @@
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="33"/>
+      <c r="G78" s="35"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
-      <c r="N78" s="33"/>
+      <c r="N78" s="35"/>
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
       <c r="Q78" s="32"/>
@@ -4986,7 +5310,7 @@
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
-      <c r="H79" s="33"/>
+      <c r="H79" s="35"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
@@ -4994,7 +5318,7 @@
       <c r="M79" s="28"/>
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
-      <c r="P79" s="33"/>
+      <c r="P79" s="35"/>
       <c r="Q79" s="32"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -5021,8 +5345,8 @@
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
@@ -5047,8 +5371,8 @@
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
@@ -5056,7 +5380,7 @@
       <c r="M81" s="28"/>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
-      <c r="P81" s="33"/>
+      <c r="P81" s="35"/>
       <c r="Q81" s="32"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -5081,8 +5405,8 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
       <c r="L82" s="28"/>
       <c r="M82" s="28"/>
       <c r="N82" s="28"/>
@@ -5112,9 +5436,9 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="33"/>
+      <c r="J83" s="35"/>
       <c r="K83" s="28"/>
-      <c r="L83" s="33"/>
+      <c r="L83" s="35"/>
       <c r="M83" s="28"/>
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
@@ -5145,8 +5469,8 @@
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
       <c r="N84" s="28"/>
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
@@ -5173,12 +5497,12 @@
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
-      <c r="I85" s="33"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
-      <c r="N85" s="33"/>
+      <c r="N85" s="35"/>
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
       <c r="Q85" s="32"/>
@@ -5207,9 +5531,9 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
-      <c r="L86" s="33"/>
+      <c r="L86" s="35"/>
       <c r="M86" s="28"/>
-      <c r="N86" s="33"/>
+      <c r="N86" s="35"/>
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
       <c r="Q86" s="32"/>
